--- a/biology/Botanique/Anagallis_monelli/Anagallis_monelli.xlsx
+++ b/biology/Botanique/Anagallis_monelli/Anagallis_monelli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Mouron de Monel, Anagallis monelli (basionyme) est une espèce de  de la famille des Primulaceae selon la classification classique, ou de celle des Myrsinaceae selon la classification phylogénétique.
 </t>
@@ -511,11 +523,13 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Anagallis collina Schousb.
 Anagallis maritima Mariz &amp; Samp.
-Anagallis linifolia L[1].
+Anagallis linifolia L.
 Lysimachia monelli (L.) U. Mann &amp; Anderb., 2009 - synonyme actuel</t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée vivace avec une base de tige ligneuse.
 Ses tiges atteignent 10 à 50 cm de hauteur.
@@ -580,7 +596,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Terres cultivées, friches, bord des chemins.
 </t>
@@ -611,7 +629,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Portugal, Espagne, Sardaigne, Sicile, Italie du Sud.
 En France, on la trouve uniquement dans les Bouches-du-Rhône.
@@ -643,9 +663,11 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce ou ses hybrides sont cultivés pour leur aspect ornemental[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce ou ses hybrides sont cultivés pour leur aspect ornemental.
 </t>
         </is>
       </c>
